--- a/data/hotels_by_city/Houston/Houston_shard_499.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_499.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d244314-Reviews-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Houston-Medical-Center-Reliant-Park.h19735.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,506 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r483052497-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244314</t>
+  </si>
+  <si>
+    <t>483052497</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Don't Stay here..</t>
+  </si>
+  <si>
+    <t>Rude staff especially the morning girl. Manager got upset when we brought to her attention that the room and bed was filthy. We had a group of thugs drinking and being loud on the walkway in front of our room. Cars playing loud music. Sketchy people around the property. It's too bad that Motel 6 hires unprofessional people. Hotel could be nice if property had better management. Will avoid this place next time in town.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r467039912-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467039912</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise</t>
+  </si>
+  <si>
+    <t>I stayed here the last week in February the place was immaculate fenced in parking great security the staff was great great location I highly recommend this place close to MD Anderson and the medical center area lot of places close to eat Walmart close by</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r380834069-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380834069</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Horrible and disgusting.</t>
+  </si>
+  <si>
+    <t>There were dead roaches every where and the hot water didn't work. When I picked up the phone to call the front desk, the phone was out of order. I had to walk down there. And, it is also NOT a very safe location to stay at if you have small children or a nice vehicle. Very questionable characters hang out in the parking lot ALL night.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r340561979-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340561979</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Avoid this place !!!!Roaches everywhere,  cigarette burns on furniture and tub, burn holes in bedding,  feces in the hallway. Hookers and drug addicts  in the parking lot. I recommend going access the highway to the Sterling inns and Suites.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r333866440-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333866440</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for...plus bugs...</t>
+  </si>
+  <si>
+    <t>First, the positives for this place I will say that this Motel really was a life saver, it was one of the only places still available for an event we were attending at NRG Stadium, we paid $135 total for a two night stay including taxes, and they did not ask to put a deposit hold on my card that most hotels/motels do. The room was clean, the beds were comfortable, the shower pressure was everything we needed it to be. I checked the mattress for bed bugs, no sign of them, which was a huge relief. The location was just minutes away from NRG park, a gas station, a cvs, and a mcdonalds. 
+Now, for the negatives. There were tons of tiny little bugs in the bathroom that would always come out at night. I was grossed out and terrified (I am highly afraid of bugs) to go to the bathroom in the middle of the night! Every time I closed the door, at least about 20 small bugs ran out from behind the door, I had to use the restroom with my feet up in the air. I couldn't even put them up on the wall because a few of them crawled up instead of out. While we were there, it rained the second night, and several medium sized roaches crawled in through the air unit and a small crack by the bottom of the room door. Lastly,...First, the positives for this place I will say that this Motel really was a life saver, it was one of the only places still available for an event we were attending at NRG Stadium, we paid $135 total for a two night stay including taxes, and they did not ask to put a deposit hold on my card that most hotels/motels do. The room was clean, the beds were comfortable, the shower pressure was everything we needed it to be. I checked the mattress for bed bugs, no sign of them, which was a huge relief. The location was just minutes away from NRG park, a gas station, a cvs, and a mcdonalds. Now, for the negatives. There were tons of tiny little bugs in the bathroom that would always come out at night. I was grossed out and terrified (I am highly afraid of bugs) to go to the bathroom in the middle of the night! Every time I closed the door, at least about 20 small bugs ran out from behind the door, I had to use the restroom with my feet up in the air. I couldn't even put them up on the wall because a few of them crawled up instead of out. While we were there, it rained the second night, and several medium sized roaches crawled in through the air unit and a small crack by the bottom of the room door. Lastly, the parking situation was not great. We did not have any issues being broken in to or anything, but if you have a nice car/ and, or a car that may have a removable stereo I would definitely think twice or at least remove that stuff before you park it for the night. There is a small convenience store right off of the motel parking, and there were always guys just posted up staring at the activity in the parking lot. Do your best to park in FRONT of the office/ front of the building rather than on the side like we were originally advised to do. At the end of the day, if bugs aren't a big issue for you, it is not a bad place to stay, just be aware.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2015</t>
+  </si>
+  <si>
+    <t>First, the positives for this place I will say that this Motel really was a life saver, it was one of the only places still available for an event we were attending at NRG Stadium, we paid $135 total for a two night stay including taxes, and they did not ask to put a deposit hold on my card that most hotels/motels do. The room was clean, the beds were comfortable, the shower pressure was everything we needed it to be. I checked the mattress for bed bugs, no sign of them, which was a huge relief. The location was just minutes away from NRG park, a gas station, a cvs, and a mcdonalds. 
+Now, for the negatives. There were tons of tiny little bugs in the bathroom that would always come out at night. I was grossed out and terrified (I am highly afraid of bugs) to go to the bathroom in the middle of the night! Every time I closed the door, at least about 20 small bugs ran out from behind the door, I had to use the restroom with my feet up in the air. I couldn't even put them up on the wall because a few of them crawled up instead of out. While we were there, it rained the second night, and several medium sized roaches crawled in through the air unit and a small crack by the bottom of the room door. Lastly,...First, the positives for this place I will say that this Motel really was a life saver, it was one of the only places still available for an event we were attending at NRG Stadium, we paid $135 total for a two night stay including taxes, and they did not ask to put a deposit hold on my card that most hotels/motels do. The room was clean, the beds were comfortable, the shower pressure was everything we needed it to be. I checked the mattress for bed bugs, no sign of them, which was a huge relief. The location was just minutes away from NRG park, a gas station, a cvs, and a mcdonalds. Now, for the negatives. There were tons of tiny little bugs in the bathroom that would always come out at night. I was grossed out and terrified (I am highly afraid of bugs) to go to the bathroom in the middle of the night! Every time I closed the door, at least about 20 small bugs ran out from behind the door, I had to use the restroom with my feet up in the air. I couldn't even put them up on the wall because a few of them crawled up instead of out. While we were there, it rained the second night, and several medium sized roaches crawled in through the air unit and a small crack by the bottom of the room door. Lastly, the parking situation was not great. We did not have any issues being broken in to or anything, but if you have a nice car/ and, or a car that may have a removable stereo I would definitely think twice or at least remove that stuff before you park it for the night. There is a small convenience store right off of the motel parking, and there were always guys just posted up staring at the activity in the parking lot. Do your best to park in FRONT of the office/ front of the building rather than on the side like we were originally advised to do. At the end of the day, if bugs aren't a big issue for you, it is not a bad place to stay, just be aware.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r330210333-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330210333</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Not bad for the money</t>
+  </si>
+  <si>
+    <t>I stayed here mainly because of the price and location. The room was fairly clean and the bed was comfortable. The area was a little sketchy like others have explained but they did have a police officer on duty which seems to be the norm around Houston. Made me feel a bit safer. Over all i would say it was okay for the money taking everything into consideration. But I wont be in a hurry to go back.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r287472234-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287472234</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Im sure this place relies on its close proximity to the Reliant Center to draw business, because it CAN NOT be for its clenliness or level of service. The sheets had an odd odor, there were no complimentary toiletries, and when my husband asked for 2 extra towels at the front desk, they only gave him one and left the front desk with no explanation! They TOTALLY ignored him! Luckilly, we only stayed there one night. Another thing i'd like to mention is that this place is clearly a favorite for "working girls".  If possible, avoid a stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Im sure this place relies on its close proximity to the Reliant Center to draw business, because it CAN NOT be for its clenliness or level of service. The sheets had an odd odor, there were no complimentary toiletries, and when my husband asked for 2 extra towels at the front desk, they only gave him one and left the front desk with no explanation! They TOTALLY ignored him! Luckilly, we only stayed there one night. Another thing i'd like to mention is that this place is clearly a favorite for "working girls".  If possible, avoid a stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r261257427-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261257427</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Service and conditions better than expected</t>
+  </si>
+  <si>
+    <t>I traveled to Houston for the stock show.  This is a time of year when motel rooms are scarce in the Reliant area, and tend to be more expensive than at other times.  This facility did not jack their prices, the room was very clean, and the desk clerk, Asia, was extremely friendly and helpful.  Yes, the motel is right off of 610, but even with a room facing the highway, there was no noise issue.  I neither saw nor heard all the "homeless and prostitutes" another reviewer referred to, nor did I see or hear any evidence of illegal activities going on in or around the property.  I parked in front of my room, and while the parking lot was a bit tight, it was adequate for a normal passenger vehicle.  I would not recommend trying to park anything bigger than a standard van.  As for amenities, there were few.  I did pay the extra for wifi service, but at the room rate, I did not feel gipped by the $2.99 charge.  Overall, I found this stay to be an excellent value for the money, and it was close and convenient to the venue I was there to visit.  Fine for a night's stay, but I wouldn't want to make it a long term location.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I traveled to Houston for the stock show.  This is a time of year when motel rooms are scarce in the Reliant area, and tend to be more expensive than at other times.  This facility did not jack their prices, the room was very clean, and the desk clerk, Asia, was extremely friendly and helpful.  Yes, the motel is right off of 610, but even with a room facing the highway, there was no noise issue.  I neither saw nor heard all the "homeless and prostitutes" another reviewer referred to, nor did I see or hear any evidence of illegal activities going on in or around the property.  I parked in front of my room, and while the parking lot was a bit tight, it was adequate for a normal passenger vehicle.  I would not recommend trying to park anything bigger than a standard van.  As for amenities, there were few.  I did pay the extra for wifi service, but at the room rate, I did not feel gipped by the $2.99 charge.  Overall, I found this stay to be an excellent value for the money, and it was close and convenient to the venue I was there to visit.  Fine for a night's stay, but I wouldn't want to make it a long term location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r230223326-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230223326</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t>I didn't read the reviews before I went, I only saw the price so I reserved the room over the phone. When I arrived, the parking lot was SO sketchy.  I was so afraid to park there.  The parking in front of the building was extremely limited so that left a parking lot on the side of the building for access to my room.  There were no cameras on the parking lot that I could see and there were people outside watching to see who actually left their car there.  It appeared they were the lookouts for their friends to break into cars.  I should have left at this point but my card was already charged so I went inside to check-in. 
+There was a trash can in front of the check-in desk catching water from the ceiling - never a good start.  I was assigned a non-smoking room with ashtrays in it, with a moderate to strong smell of smoke.
+The wifi was paid so I didn't bother.  The TV was old and the sleep timer kept turning it off.  No refrigerator, no safe, no alarm clock.
+I was in the front of the building so the interstate noise was annoying but not unbearable; occasionally sirens would go by. There were people loitering in parking lot, shirtless.  
+I ran the air conditioner at its lowest setting for several hours, it never got cold in my room.  I have to...I didn't read the reviews before I went, I only saw the price so I reserved the room over the phone. When I arrived, the parking lot was SO sketchy.  I was so afraid to park there.  The parking in front of the building was extremely limited so that left a parking lot on the side of the building for access to my room.  There were no cameras on the parking lot that I could see and there were people outside watching to see who actually left their car there.  It appeared they were the lookouts for their friends to break into cars.  I should have left at this point but my card was already charged so I went inside to check-in. There was a trash can in front of the check-in desk catching water from the ceiling - never a good start.  I was assigned a non-smoking room with ashtrays in it, with a moderate to strong smell of smoke.The wifi was paid so I didn't bother.  The TV was old and the sleep timer kept turning it off.  No refrigerator, no safe, no alarm clock.I was in the front of the building so the interstate noise was annoying but not unbearable; occasionally sirens would go by. There were people loitering in parking lot, shirtless.  I ran the air conditioner at its lowest setting for several hours, it never got cold in my room.  I have to be COLD in order to sleep.  Finally some time after 3 a.m., after tossing and turning, I finally figured out to close the bathroom door so there was less square footage to cool down.  Finally it got cold.  I got roughly 3 hours of sleep before I had to wake up for my doctor appointment.  Speaking of sleep, the bed was quite firm.  Their pillows were so thick they could plug the hole in the ozone layer with them.  I need thin pillows ... sadly, I forgot to bring them in this trip.  Not to mention the fact that every time I moved in the bed, the headboard knocked against the wall. Someone mentioned that there was security to roam the parking lot.  If there is, I never saw one ... and after midnight, a car was illegally parked (due to the small parking lot size) in front of my room thumping their bass for at least 20 minutes.  Neither my tv or air conditioner could drown out the bass. The next morning, I took a shower and found a loooong hair in my clean towel.  I also found other hairs on the bamboo? cork? whatever type of floor it was in my room.  Ok so the good things about the hotel: the room was painted nice, good colors - the bedding matched.  The room was overall clean except the hairs I found on the floor and the almost overbearing smell of smoke in my non-smoking room.  The TV did work, but not very clearly and it was like 18" or something.  Pretty small. I don't care how desperate I am, I will never stay at this location again. The value I received did not offset the main reason I needed to stay there in the first place: sleep.  Three hours of sleep for $46+tax?  I would rather sleep under a bridge for free, it would have felt about the same. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>I didn't read the reviews before I went, I only saw the price so I reserved the room over the phone. When I arrived, the parking lot was SO sketchy.  I was so afraid to park there.  The parking in front of the building was extremely limited so that left a parking lot on the side of the building for access to my room.  There were no cameras on the parking lot that I could see and there were people outside watching to see who actually left their car there.  It appeared they were the lookouts for their friends to break into cars.  I should have left at this point but my card was already charged so I went inside to check-in. 
+There was a trash can in front of the check-in desk catching water from the ceiling - never a good start.  I was assigned a non-smoking room with ashtrays in it, with a moderate to strong smell of smoke.
+The wifi was paid so I didn't bother.  The TV was old and the sleep timer kept turning it off.  No refrigerator, no safe, no alarm clock.
+I was in the front of the building so the interstate noise was annoying but not unbearable; occasionally sirens would go by. There were people loitering in parking lot, shirtless.  
+I ran the air conditioner at its lowest setting for several hours, it never got cold in my room.  I have to...I didn't read the reviews before I went, I only saw the price so I reserved the room over the phone. When I arrived, the parking lot was SO sketchy.  I was so afraid to park there.  The parking in front of the building was extremely limited so that left a parking lot on the side of the building for access to my room.  There were no cameras on the parking lot that I could see and there were people outside watching to see who actually left their car there.  It appeared they were the lookouts for their friends to break into cars.  I should have left at this point but my card was already charged so I went inside to check-in. There was a trash can in front of the check-in desk catching water from the ceiling - never a good start.  I was assigned a non-smoking room with ashtrays in it, with a moderate to strong smell of smoke.The wifi was paid so I didn't bother.  The TV was old and the sleep timer kept turning it off.  No refrigerator, no safe, no alarm clock.I was in the front of the building so the interstate noise was annoying but not unbearable; occasionally sirens would go by. There were people loitering in parking lot, shirtless.  I ran the air conditioner at its lowest setting for several hours, it never got cold in my room.  I have to be COLD in order to sleep.  Finally some time after 3 a.m., after tossing and turning, I finally figured out to close the bathroom door so there was less square footage to cool down.  Finally it got cold.  I got roughly 3 hours of sleep before I had to wake up for my doctor appointment.  Speaking of sleep, the bed was quite firm.  Their pillows were so thick they could plug the hole in the ozone layer with them.  I need thin pillows ... sadly, I forgot to bring them in this trip.  Not to mention the fact that every time I moved in the bed, the headboard knocked against the wall. Someone mentioned that there was security to roam the parking lot.  If there is, I never saw one ... and after midnight, a car was illegally parked (due to the small parking lot size) in front of my room thumping their bass for at least 20 minutes.  Neither my tv or air conditioner could drown out the bass. The next morning, I took a shower and found a loooong hair in my clean towel.  I also found other hairs on the bamboo? cork? whatever type of floor it was in my room.  Ok so the good things about the hotel: the room was painted nice, good colors - the bedding matched.  The room was overall clean except the hairs I found on the floor and the almost overbearing smell of smoke in my non-smoking room.  The TV did work, but not very clearly and it was like 18" or something.  Pretty small. I don't care how desperate I am, I will never stay at this location again. The value I received did not offset the main reason I needed to stay there in the first place: sleep.  Three hours of sleep for $46+tax?  I would rather sleep under a bridge for free, it would have felt about the same. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r197469320-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197469320</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Don't. Do. It.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusting, filthy room, dirty linens, noisy location. I had to get Lysol wipes and wipe down the floor because it was so dirty that when we got in the shower, we left dirty footprints. There were roaches in the bathroom. We will never stay at any motel 6 again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r197381816-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197381816</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>They kept the light on</t>
+  </si>
+  <si>
+    <t>Very good stay for the price, rooms were clean and newly renovated.  Try to get a room on the back side of the motel if you can to avoid noise from the freeway (it will be right out your door if you are in the front of the building).  I would not hesitate to stay again, way cheaper than the other hotels of the area, and exactly what I needed.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r193117921-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193117921</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This motel is a great value for the price, location, and cleanliness of the rooms. The rooms are impressively large and I was surprised but impressed at how clean my room was. It was not perfectly quiet, but quieter than some hotels I've stayed at. And while the front office desk manager did not have great customer service skills, she was to her credit also understaffed and seemingly ill-trained. The TV was very small and old but worked. Furnishings were sparse but adequate. In short, if you are looking for a clean, well located, and cheap stay without all the frills, you will find this motel to be a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This motel is a great value for the price, location, and cleanliness of the rooms. The rooms are impressively large and I was surprised but impressed at how clean my room was. It was not perfectly quiet, but quieter than some hotels I've stayed at. And while the front office desk manager did not have great customer service skills, she was to her credit also understaffed and seemingly ill-trained. The TV was very small and old but worked. Furnishings were sparse but adequate. In short, if you are looking for a clean, well located, and cheap stay without all the frills, you will find this motel to be a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r145398968-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145398968</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>I live in the Houston area and had to stay 2 nights at a hotel while moving into a new place.  This hotel was the most conveniently located for the best price.  I'm familiar with the area so the security concerns that other reviewers raised didn't bother me since I know the area well.  However, even though I'm from the area I still felt unsafe here.  There were homeless people loitering around the property and at night, there were lots of noises, sirens, and sounds of people talking.  I kept checking my car to make sure that everything was okay.The room itself was fine; comfortable beds, wood floors, shower with great water pressure, and linens/towels that were better than expected.  If the hotel could be moved to the other side of the interstate, it would be a world of difference.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I live in the Houston area and had to stay 2 nights at a hotel while moving into a new place.  This hotel was the most conveniently located for the best price.  I'm familiar with the area so the security concerns that other reviewers raised didn't bother me since I know the area well.  However, even though I'm from the area I still felt unsafe here.  There were homeless people loitering around the property and at night, there were lots of noises, sirens, and sounds of people talking.  I kept checking my car to make sure that everything was okay.The room itself was fine; comfortable beds, wood floors, shower with great water pressure, and linens/towels that were better than expected.  If the hotel could be moved to the other side of the interstate, it would be a world of difference.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r141918478-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141918478</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>Bad on so many levels…</t>
+  </si>
+  <si>
+    <t>This Motel 6 is bad on so many levels.  Usually Motel 6's are cheap and still nice places to stay; I have used them in quite a few states in US by now. I booked this Motel 6 in Houston for 12 days, and had already decided to move to another motel the next day. The first impression, as many other reviews have written here, is that the motel is increadibly noisy, being near a large highway. When checkin in, the clerk told me the internet was down and the pool was under reparation... Then going up to 3rd floor, I noticed the walls in the corridors looked like the walls of an underground bunker, not of a hotel!  Then the room:  Well, the room was probably the only positive thing. It was clean and large, although the floor didn't have carpet but solid "laminate" type covering, which is strange for a hotel, but OK.  The bathroom was quite new and very clean. During the night, I could hear the neighbors speaking on the phone (I think); the walls do not seem to be that thick. During all the evening, there were two police in front of the building talking to a non-police person for hours. I have no idea what they were doing, but have police for hours in front of your hotel is never a good sign. One other good point though:  The staff was friendly, and totally...This Motel 6 is bad on so many levels.  Usually Motel 6's are cheap and still nice places to stay; I have used them in quite a few states in US by now. I booked this Motel 6 in Houston for 12 days, and had already decided to move to another motel the next day. The first impression, as many other reviews have written here, is that the motel is increadibly noisy, being near a large highway. When checkin in, the clerk told me the internet was down and the pool was under reparation... Then going up to 3rd floor, I noticed the walls in the corridors looked like the walls of an underground bunker, not of a hotel!  Then the room:  Well, the room was probably the only positive thing. It was clean and large, although the floor didn't have carpet but solid "laminate" type covering, which is strange for a hotel, but OK.  The bathroom was quite new and very clean. During the night, I could hear the neighbors speaking on the phone (I think); the walls do not seem to be that thick. During all the evening, there were two police in front of the building talking to a non-police person for hours. I have no idea what they were doing, but have police for hours in front of your hotel is never a good sign. One other good point though:  The staff was friendly, and totally understood when I cancelled the rest of my stay. I know moved to the 'La Quinta Inns &amp; Suites'. I'm writing this review from the 'La Quinta' hotel room, which b.t.w. has free (and working) wifi, and already I'm so happy to be here now!  That being said, I still think most Motel 6's are OK, just not the 'Houston Reliant Park' one.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>This Motel 6 is bad on so many levels.  Usually Motel 6's are cheap and still nice places to stay; I have used them in quite a few states in US by now. I booked this Motel 6 in Houston for 12 days, and had already decided to move to another motel the next day. The first impression, as many other reviews have written here, is that the motel is increadibly noisy, being near a large highway. When checkin in, the clerk told me the internet was down and the pool was under reparation... Then going up to 3rd floor, I noticed the walls in the corridors looked like the walls of an underground bunker, not of a hotel!  Then the room:  Well, the room was probably the only positive thing. It was clean and large, although the floor didn't have carpet but solid "laminate" type covering, which is strange for a hotel, but OK.  The bathroom was quite new and very clean. During the night, I could hear the neighbors speaking on the phone (I think); the walls do not seem to be that thick. During all the evening, there were two police in front of the building talking to a non-police person for hours. I have no idea what they were doing, but have police for hours in front of your hotel is never a good sign. One other good point though:  The staff was friendly, and totally...This Motel 6 is bad on so many levels.  Usually Motel 6's are cheap and still nice places to stay; I have used them in quite a few states in US by now. I booked this Motel 6 in Houston for 12 days, and had already decided to move to another motel the next day. The first impression, as many other reviews have written here, is that the motel is increadibly noisy, being near a large highway. When checkin in, the clerk told me the internet was down and the pool was under reparation... Then going up to 3rd floor, I noticed the walls in the corridors looked like the walls of an underground bunker, not of a hotel!  Then the room:  Well, the room was probably the only positive thing. It was clean and large, although the floor didn't have carpet but solid "laminate" type covering, which is strange for a hotel, but OK.  The bathroom was quite new and very clean. During the night, I could hear the neighbors speaking on the phone (I think); the walls do not seem to be that thick. During all the evening, there were two police in front of the building talking to a non-police person for hours. I have no idea what they were doing, but have police for hours in front of your hotel is never a good sign. One other good point though:  The staff was friendly, and totally understood when I cancelled the rest of my stay. I know moved to the 'La Quinta Inns &amp; Suites'. I'm writing this review from the 'La Quinta' hotel room, which b.t.w. has free (and working) wifi, and already I'm so happy to be here now!  That being said, I still think most Motel 6's are OK, just not the 'Houston Reliant Park' one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r138466654-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138466654</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Words can not describe how awful this place is!!!!!!</t>
+  </si>
+  <si>
+    <t>This place is cheap for a reason. Had I known how disgusting this place was I would not have even booked and would have stayed elsewhere. It was loud and I had people loitering and  yelling in front of my window at 6am!! Who does that??The peep hole had a napkin stuffed in it and there was a bullet hole in the ceiling above the sitting table in the room.I have never had such a restless and uncomfortable night in my life.I have no problem with the Motel 6 chain. I have stayed at numerous ones and have had great expeirences but this one was by far the worst hotel stay I have ever had!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This place is cheap for a reason. Had I known how disgusting this place was I would not have even booked and would have stayed elsewhere. It was loud and I had people loitering and  yelling in front of my window at 6am!! Who does that??The peep hole had a napkin stuffed in it and there was a bullet hole in the ceiling above the sitting table in the room.I have never had such a restless and uncomfortable night in my life.I have no problem with the Motel 6 chain. I have stayed at numerous ones and have had great expeirences but this one was by far the worst hotel stay I have ever had!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r98276537-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>98276537</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Good but noisy</t>
+  </si>
+  <si>
+    <t>Booked this motel on the internet having never been to Houston before. It was clean, well serviced and the staff were helpful. Motel 6 is a good budget motel choice and this is one of the nicer Motel 6 buildings we have stayed in. However, because it is by an intersection it is also one of the noisiest motels we stayed in. It didn't disturb us too much, but when we returned to Houston we enjoyed being away from the freeway.It isn't very easy to walk anywhere from this motel but the location next to the freeway is very convenient. This motel felt safe, was well lit and was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>Booked this motel on the internet having never been to Houston before. It was clean, well serviced and the staff were helpful. Motel 6 is a good budget motel choice and this is one of the nicer Motel 6 buildings we have stayed in. However, because it is by an intersection it is also one of the noisiest motels we stayed in. It didn't disturb us too much, but when we returned to Houston we enjoyed being away from the freeway.It isn't very easy to walk anywhere from this motel but the location next to the freeway is very convenient. This motel felt safe, was well lit and was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r92326005-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>92326005</t>
+  </si>
+  <si>
+    <t>01/09/2011</t>
+  </si>
+  <si>
+    <t>Clean AND Color Coordinated?? Sign me up!</t>
+  </si>
+  <si>
+    <t>I'm trekking across the US with my sister and we're staying exclusively in Motel 6s to save money. We were bracing for the worst when we came here--it's major flaw is that it's VERY noisy. I can hear the traffic of the fwy constantly, and briefly during one of our two night stays, someone was running some kind of weird bass rumble somewhere... but that's my only real complaint.We stayed in the first floor and were pleasantly surprised to discover it had an amusing turquoise wall that matched the taupe-and-turquoise bedspread. The floor is some kind of bamboo patterned laminate--kind of weird looking but at least it was sparkly clean. Must be a recent remodel, judging from the other reviews here.The room had no bad odors whatsoever and the sheets actually smelled fresh. The pillows were amazingly plush.The bathroom had all of the required amenities (we had a room with two kingsized beds, so we got two towels... in past experience with motel 6, they only give you one...)Our trip required a two-night stay in Houston and we're glad we found our way to this particular Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm trekking across the US with my sister and we're staying exclusively in Motel 6s to save money. We were bracing for the worst when we came here--it's major flaw is that it's VERY noisy. I can hear the traffic of the fwy constantly, and briefly during one of our two night stays, someone was running some kind of weird bass rumble somewhere... but that's my only real complaint.We stayed in the first floor and were pleasantly surprised to discover it had an amusing turquoise wall that matched the taupe-and-turquoise bedspread. The floor is some kind of bamboo patterned laminate--kind of weird looking but at least it was sparkly clean. Must be a recent remodel, judging from the other reviews here.The room had no bad odors whatsoever and the sheets actually smelled fresh. The pillows were amazingly plush.The bathroom had all of the required amenities (we had a room with two kingsized beds, so we got two towels... in past experience with motel 6, they only give you one...)Our trip required a two-night stay in Houston and we're glad we found our way to this particular Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r83474376-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83474376</t>
+  </si>
+  <si>
+    <t>10/14/2010</t>
+  </si>
+  <si>
+    <t>A Safe Haven in a Scary Neighborhood</t>
+  </si>
+  <si>
+    <t>I felt completely safe and welcome at the Motel 6 even though the surroundings were less than comforting. The room was clean, smoke-free, and even the parking lot was patrolled.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r61789197-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61789197</t>
+  </si>
+  <si>
+    <t>04/17/2010</t>
+  </si>
+  <si>
+    <t>BAD NEIGHBORHOOD</t>
+  </si>
+  <si>
+    <t>This is my husbands and my first time to houston and went on line looking for a good but cheap motel to stay at for the 3 days we would be here, when we got here the price was higher the the quote was when i made the reservations, motel 6 does not have the best reputations but this one was newly renovated and figured that it would be better the the average motel 6 well its not, my husband saw a man shooting dope right outside the parking lot and drug dealers and hookers are in and out, the room itself was rather nice and it was clean, there are very few tv stations to choose from and you have to pay 2.99 a day for internet when i can go th mcdonalds or dennys and use it free most motels its free, my point is we dont feel very safe here and would not stay at any motel 6,you get what you pay for here and that not much.The one nice feature about the motel 6 is that my dog stayed for free and thank god we have him here as we have 2 more days of this.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>This is my husbands and my first time to houston and went on line looking for a good but cheap motel to stay at for the 3 days we would be here, when we got here the price was higher the the quote was when i made the reservations, motel 6 does not have the best reputations but this one was newly renovated and figured that it would be better the the average motel 6 well its not, my husband saw a man shooting dope right outside the parking lot and drug dealers and hookers are in and out, the room itself was rather nice and it was clean, there are very few tv stations to choose from and you have to pay 2.99 a day for internet when i can go th mcdonalds or dennys and use it free most motels its free, my point is we dont feel very safe here and would not stay at any motel 6,you get what you pay for here and that not much.The one nice feature about the motel 6 is that my dog stayed for free and thank god we have him here as we have 2 more days of this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r59529775-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59529775</t>
+  </si>
+  <si>
+    <t>03/25/2010</t>
+  </si>
+  <si>
+    <t>Didn't expect to be calling the police</t>
+  </si>
+  <si>
+    <t>We didn't expect much staying at a Motel 6, but we did expect our vehicle would be safe.  We stayed one night to go to the rodeo at Reliant Park.  Upon returning from the rodeo, we had to park next to the gas station which shares the parking lot.  There was a man loitering at the gas station who proceeded to attempt to break into our car as we were walking to the hotel.  Luckily, we distracted him.  We went to our room to get our dog that we coincidentally brought with us and my boyfriend went back to find the man attempting to break in to the car again.  He went to the front desk to call the police, but there was a security guard patrolling the hotel over night.  We ended up moving our car to in front of the office and having the guard watch it over night.  I wouldn't recommend staying here at all knowing that there is the potential for your car being broken into.  Other than that, it was fairly clean to just sleep in for one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We didn't expect much staying at a Motel 6, but we did expect our vehicle would be safe.  We stayed one night to go to the rodeo at Reliant Park.  Upon returning from the rodeo, we had to park next to the gas station which shares the parking lot.  There was a man loitering at the gas station who proceeded to attempt to break into our car as we were walking to the hotel.  Luckily, we distracted him.  We went to our room to get our dog that we coincidentally brought with us and my boyfriend went back to find the man attempting to break in to the car again.  He went to the front desk to call the police, but there was a security guard patrolling the hotel over night.  We ended up moving our car to in front of the office and having the guard watch it over night.  I wouldn't recommend staying here at all knowing that there is the potential for your car being broken into.  Other than that, it was fairly clean to just sleep in for one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r56548029-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56548029</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>Toooo loud.  I'm staying here currently...</t>
+  </si>
+  <si>
+    <t>Toooo loud.  I'm staying here currently and am listening to freeway sounds, loud people and my neighbor's TV.  Only 1 towel in the room.  Only had 1 more to offer.  Won't stay here again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r23406818-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>23406818</t>
+  </si>
+  <si>
+    <t>01/09/2009</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>I was staying with friends, we got the room of the convience, the room was disgusting. Almost like no ever cleaned it when we checked into it. Filled with little cockroaches, spiders.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r5962337-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5962337</t>
+  </si>
+  <si>
+    <t>10/15/2006</t>
+  </si>
+  <si>
+    <t>Avoid this Motel 6!</t>
+  </si>
+  <si>
+    <t>I have stayed at several Motel 6s over the last 6 months and to this day I have never experienced a place like I did at this location.
+Avoid room #224.  I had checked in late and when I went to the room it had the most awful wretching smell in it.  Called the front desk for a room change and could not due to full booking.  I suffered through the smell as it was about 12 midnight and I had to be up at 6am.  Upon wakening the smell hits you again!  I went to use the shower and it had very luke warm to cold water during my time in it.  I went to open the curtains to let the sunlight in and a couple of cockroaches scattered back under the bed and now you could see the large brown fecal stains on the carpet like a pet was left in it for a week and not let outside.  I had to hurry off to the business appointment figuring I could return in time for a room change since I was staying another night.
+My fault here as I was totally wrapped in my work for the day and forgot to contact the Motel during the day ... I was unable to get a room change again upon my return to the establishment!  Business carried over to 11pm.  After awaking the clerk from her quite visible napping spot...I have stayed at several Motel 6s over the last 6 months and to this day I have never experienced a place like I did at this location.Avoid room #224.  I had checked in late and when I went to the room it had the most awful wretching smell in it.  Called the front desk for a room change and could not due to full booking.  I suffered through the smell as it was about 12 midnight and I had to be up at 6am.  Upon wakening the smell hits you again!  I went to use the shower and it had very luke warm to cold water during my time in it.  I went to open the curtains to let the sunlight in and a couple of cockroaches scattered back under the bed and now you could see the large brown fecal stains on the carpet like a pet was left in it for a week and not let outside.  I had to hurry off to the business appointment figuring I could return in time for a room change since I was staying another night.My fault here as I was totally wrapped in my work for the day and forgot to contact the Motel during the day ... I was unable to get a room change again upon my return to the establishment!  Business carried over to 11pm.  After awaking the clerk from her quite visible napping spot I was told the place was once again fully booked when I asked for the room change.  The desk clerk seemed to have no concern for my situation either and offered no remedy.  So I suffered through another night of the wretching smell, the fecal stains, cockroaches, and cold water shower.I recommend you avoid this establishment until further reviews deem it liveable again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>I have stayed at several Motel 6s over the last 6 months and to this day I have never experienced a place like I did at this location.
+Avoid room #224.  I had checked in late and when I went to the room it had the most awful wretching smell in it.  Called the front desk for a room change and could not due to full booking.  I suffered through the smell as it was about 12 midnight and I had to be up at 6am.  Upon wakening the smell hits you again!  I went to use the shower and it had very luke warm to cold water during my time in it.  I went to open the curtains to let the sunlight in and a couple of cockroaches scattered back under the bed and now you could see the large brown fecal stains on the carpet like a pet was left in it for a week and not let outside.  I had to hurry off to the business appointment figuring I could return in time for a room change since I was staying another night.
+My fault here as I was totally wrapped in my work for the day and forgot to contact the Motel during the day ... I was unable to get a room change again upon my return to the establishment!  Business carried over to 11pm.  After awaking the clerk from her quite visible napping spot...I have stayed at several Motel 6s over the last 6 months and to this day I have never experienced a place like I did at this location.Avoid room #224.  I had checked in late and when I went to the room it had the most awful wretching smell in it.  Called the front desk for a room change and could not due to full booking.  I suffered through the smell as it was about 12 midnight and I had to be up at 6am.  Upon wakening the smell hits you again!  I went to use the shower and it had very luke warm to cold water during my time in it.  I went to open the curtains to let the sunlight in and a couple of cockroaches scattered back under the bed and now you could see the large brown fecal stains on the carpet like a pet was left in it for a week and not let outside.  I had to hurry off to the business appointment figuring I could return in time for a room change since I was staying another night.My fault here as I was totally wrapped in my work for the day and forgot to contact the Motel during the day ... I was unable to get a room change again upon my return to the establishment!  Business carried over to 11pm.  After awaking the clerk from her quite visible napping spot I was told the place was once again fully booked when I asked for the room change.  The desk clerk seemed to have no concern for my situation either and offered no remedy.  So I suffered through another night of the wretching smell, the fecal stains, cockroaches, and cold water shower.I recommend you avoid this establishment until further reviews deem it liveable again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1041,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1073,1552 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_499.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_499.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r527834092-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244314</t>
+  </si>
+  <si>
+    <t>527834092</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>Lots of undesirable people staying here &amp; also hanging around here, didn't feel safe at all. Rooms were dirty, saw two cockroaches &amp; the staff were rude, especially the girl on reception. Never again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Lots of undesirable people staying here &amp; also hanging around here, didn't feel safe at all. Rooms were dirty, saw two cockroaches &amp; the staff were rude, especially the girl on reception. Never again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r498890100-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498890100</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad! </t>
+  </si>
+  <si>
+    <t>We had stayed here around 4 years ago as we passed through Houston on our move across the country. We remembered it being not bad, and one of the better Motel 6's we'd stayed at, so we decided to stay here again when we were in Houston for the weekend. We always travel with our dog, so Motel 6 works for us. You get what you pay for, however we really don't have any complaints for our room. The beds were clean and pretty comfy, the shower and bathroom looked clean too, the floors and sink were relatively new, the tv was nice and there were no bugs!!! It's handy to a chevron gas station if you need to pick up drinks or snacks or anything - and close to all of the activities we went to. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had stayed here around 4 years ago as we passed through Houston on our move across the country. We remembered it being not bad, and one of the better Motel 6's we'd stayed at, so we decided to stay here again when we were in Houston for the weekend. We always travel with our dog, so Motel 6 works for us. You get what you pay for, however we really don't have any complaints for our room. The beds were clean and pretty comfy, the shower and bathroom looked clean too, the floors and sink were relatively new, the tv was nice and there were no bugs!!! It's handy to a chevron gas station if you need to pick up drinks or snacks or anything - and close to all of the activities we went to. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r483052497-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>244314</t>
-  </si>
-  <si>
     <t>483052497</t>
   </si>
   <si>
@@ -219,7 +273,52 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r356618832-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356618832</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>STOLEN VEHICLE, TRAILER &amp; ANIMALS</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!! Our vehicle and trailer with animals still inside, was stolen out of the parking lot. We were here for the Houston Livestock Show &amp; Rodeo, and we never got to show. This hotel does have security cameras and on-site security and it still happens!!READ THE REVIEWSIT'S  BAD, THE WORST!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!! Our vehicle and trailer with animals still inside, was stolen out of the parking lot. We were here for the Houston Livestock Show &amp; Rodeo, and we never got to show. This hotel does have security cameras and on-site security and it still happens!!READ THE REVIEWSIT'S  BAD, THE WORST!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r350102943-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350102943</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Avoid at all costs!!!</t>
+  </si>
+  <si>
+    <t>I am hard on Motel 6 on their wifi fraud, but I have never had anything but good experiences in regard to managers and their employees....until now. And to me, this one IS important for you to know. The past 2 nights I was at this property for hospital things. I went up to the office to pay for another night, when I was rudely told by the girl at the desk that I had to check out. I talked to the manager, Tonya Cham, and she told me that she was told by a couple of other guests that I was asking them for money. I was here going through cancer stuff. I definitely am doing well financially. The manager and staff here are rude, don't care about their guests, and if they don't like how you look, they pull this!! Avoid this Motel 6!!! If you are coming to houston medical center, stay at the Motel 6, 9911 Buffalo Speedway. It's one block away from this, and you would be alot happier! They have free wifi, shuttle to medical center, continental breakfast. The manager and staff are friendly, helpful and care about guests. This one used to be a laquinta, recently became a motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I am hard on Motel 6 on their wifi fraud, but I have never had anything but good experiences in regard to managers and their employees....until now. And to me, this one IS important for you to know. The past 2 nights I was at this property for hospital things. I went up to the office to pay for another night, when I was rudely told by the girl at the desk that I had to check out. I talked to the manager, Tonya Cham, and she told me that she was told by a couple of other guests that I was asking them for money. I was here going through cancer stuff. I definitely am doing well financially. The manager and staff here are rude, don't care about their guests, and if they don't like how you look, they pull this!! Avoid this Motel 6!!! If you are coming to houston medical center, stay at the Motel 6, 9911 Buffalo Speedway. It's one block away from this, and you would be alot happier! They have free wifi, shuttle to medical center, continental breakfast. The manager and staff are friendly, helpful and care about guests. This one used to be a laquinta, recently became a motel 6.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r340561979-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
@@ -259,9 +358,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded December 23, 2015</t>
   </si>
   <si>
@@ -288,6 +384,57 @@
   </si>
   <si>
     <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r297370912-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297370912</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>Worst hotel ever. Stayed three nights and sink water was super low pressure, roaches, and two towels were given only.  No room service was completed.  People fighting outside and pool was dirty.  Never again. Asked manager for towels said they only issue two.  Draws people since its in a good location but will never stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Worst hotel ever. Stayed three nights and sink water was super low pressure, roaches, and two towels were given only.  No room service was completed.  People fighting outside and pool was dirty.  Never again. Asked manager for towels said they only issue two.  Draws people since its in a good location but will never stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r288981132-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288981132</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Worst Motel 6 Ever !! Do not stay there!!</t>
+  </si>
+  <si>
+    <t>Do not stay at this Motel 6 !!!! We checked into this Motel 6 last night 7-13-15 only because my daughter had a medical  appointment at TCH and since it was so close to the hospital I chose this motel strictly because of cost. Boy was I wrong to do that. The motel in self is a roach infestation motel. We stayed in room 324 and as soon as I opened the door a Roach ran out. That should have been my first indication to leave immediately. But we were tired so we decided to stay. The ac was barley working but it did keep the room cool. My daughter wanted to take a shower to turn in for the night and guess what another Roach crawling in the tub Wth!! I bought some snacks with us for the night and threw the leftovers in the trash during the middle of the night I could hear the bugs in it. I got up and took the trash can outside so maybe they would follow it and leave the room. Never again would I set near this motel 6. Oh and neighborhood location hope you have an alarm on your vehicle. You have been warned. Not even a one star...MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston NRG Park - Reliant Stadium, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Do not stay at this Motel 6 !!!! We checked into this Motel 6 last night 7-13-15 only because my daughter had a medical  appointment at TCH and since it was so close to the hospital I chose this motel strictly because of cost. Boy was I wrong to do that. The motel in self is a roach infestation motel. We stayed in room 324 and as soon as I opened the door a Roach ran out. That should have been my first indication to leave immediately. But we were tired so we decided to stay. The ac was barley working but it did keep the room cool. My daughter wanted to take a shower to turn in for the night and guess what another Roach crawling in the tub Wth!! I bought some snacks with us for the night and threw the leftovers in the trash during the middle of the night I could hear the bugs in it. I got up and took the trash can outside so maybe they would follow it and leave the room. Never again would I set near this motel 6. Oh and neighborhood location hope you have an alarm on your vehicle. You have been warned. Not even a one star...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r287472234-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
@@ -373,6 +520,48 @@
 I ran the air conditioner at its lowest setting for several hours, it never got cold in my room.  I have to...I didn't read the reviews before I went, I only saw the price so I reserved the room over the phone. When I arrived, the parking lot was SO sketchy.  I was so afraid to park there.  The parking in front of the building was extremely limited so that left a parking lot on the side of the building for access to my room.  There were no cameras on the parking lot that I could see and there were people outside watching to see who actually left their car there.  It appeared they were the lookouts for their friends to break into cars.  I should have left at this point but my card was already charged so I went inside to check-in. There was a trash can in front of the check-in desk catching water from the ceiling - never a good start.  I was assigned a non-smoking room with ashtrays in it, with a moderate to strong smell of smoke.The wifi was paid so I didn't bother.  The TV was old and the sleep timer kept turning it off.  No refrigerator, no safe, no alarm clock.I was in the front of the building so the interstate noise was annoying but not unbearable; occasionally sirens would go by. There were people loitering in parking lot, shirtless.  I ran the air conditioner at its lowest setting for several hours, it never got cold in my room.  I have to be COLD in order to sleep.  Finally some time after 3 a.m., after tossing and turning, I finally figured out to close the bathroom door so there was less square footage to cool down.  Finally it got cold.  I got roughly 3 hours of sleep before I had to wake up for my doctor appointment.  Speaking of sleep, the bed was quite firm.  Their pillows were so thick they could plug the hole in the ozone layer with them.  I need thin pillows ... sadly, I forgot to bring them in this trip.  Not to mention the fact that every time I moved in the bed, the headboard knocked against the wall. Someone mentioned that there was security to roam the parking lot.  If there is, I never saw one ... and after midnight, a car was illegally parked (due to the small parking lot size) in front of my room thumping their bass for at least 20 minutes.  Neither my tv or air conditioner could drown out the bass. The next morning, I took a shower and found a loooong hair in my clean towel.  I also found other hairs on the bamboo? cork? whatever type of floor it was in my room.  Ok so the good things about the hotel: the room was painted nice, good colors - the bedding matched.  The room was overall clean except the hairs I found on the floor and the almost overbearing smell of smoke in my non-smoking room.  The TV did work, but not very clearly and it was like 18" or something.  Pretty small. I don't care how desperate I am, I will never stay at this location again. The value I received did not offset the main reason I needed to stay there in the first place: sleep.  Three hours of sleep for $46+tax?  I would rather sleep under a bridge for free, it would have felt about the same. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r215198563-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215198563</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Pathetically Lazy and Unhelpful Staff</t>
+  </si>
+  <si>
+    <t>My 76-year-old mother stayed at this hotel for about fifteen MONTHS when the manager informed her that she would have to move. He told me that the reason was for being late making some of her payments. My response was, "So what? She has stayed there for over a YEAR and you guys don't have a rewards program. In most other hotel chains, they would have given her more than a month of free nights by now, so since you are too stingy to do that maybe instead you could cut her some slack once in a while and let her pay late." She got up to date on her payments, and on a Saturday I authorized the hotel to spend another $200 on my own credit card for additional nights, which should have taken her through the following Thursday. They used about $130 of the $200, but then on Tuesday at about 1:00 p.m. told her that she had to be out by 6:00 p.m. that same evening! She told me so at 3:00 p.m. but was not answering her phone a short while later, I contacted the manager at about 4:15 p.m. to inquire about the sudden change of events, he intentionally refused to return my phone call, went home for the day, and the front-desk clerk refused to do anything to help me, including knocking on my mother's door to check on her. I had no idea...My 76-year-old mother stayed at this hotel for about fifteen MONTHS when the manager informed her that she would have to move. He told me that the reason was for being late making some of her payments. My response was, "So what? She has stayed there for over a YEAR and you guys don't have a rewards program. In most other hotel chains, they would have given her more than a month of free nights by now, so since you are too stingy to do that maybe instead you could cut her some slack once in a while and let her pay late." She got up to date on her payments, and on a Saturday I authorized the hotel to spend another $200 on my own credit card for additional nights, which should have taken her through the following Thursday. They used about $130 of the $200, but then on Tuesday at about 1:00 p.m. told her that she had to be out by 6:00 p.m. that same evening! She told me so at 3:00 p.m. but was not answering her phone a short while later, I contacted the manager at about 4:15 p.m. to inquire about the sudden change of events, he intentionally refused to return my phone call, went home for the day, and the front-desk clerk refused to do anything to help me, including knocking on my mother's door to check on her. I had no idea where my elderly mother was, so since the front-desk clerk was so pathetically lazy and unhelpful I actually asked the police to go check on my mother. Only close to 7:00 p.m. did I realize that Motel 6 HAD in fact kicked my mother and her two pets out of the hotel, they were in her car in the parking lot not having anywhere to go in a thunderstorm. I will never patronize Motel 6 again, ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My 76-year-old mother stayed at this hotel for about fifteen MONTHS when the manager informed her that she would have to move. He told me that the reason was for being late making some of her payments. My response was, "So what? She has stayed there for over a YEAR and you guys don't have a rewards program. In most other hotel chains, they would have given her more than a month of free nights by now, so since you are too stingy to do that maybe instead you could cut her some slack once in a while and let her pay late." She got up to date on her payments, and on a Saturday I authorized the hotel to spend another $200 on my own credit card for additional nights, which should have taken her through the following Thursday. They used about $130 of the $200, but then on Tuesday at about 1:00 p.m. told her that she had to be out by 6:00 p.m. that same evening! She told me so at 3:00 p.m. but was not answering her phone a short while later, I contacted the manager at about 4:15 p.m. to inquire about the sudden change of events, he intentionally refused to return my phone call, went home for the day, and the front-desk clerk refused to do anything to help me, including knocking on my mother's door to check on her. I had no idea...My 76-year-old mother stayed at this hotel for about fifteen MONTHS when the manager informed her that she would have to move. He told me that the reason was for being late making some of her payments. My response was, "So what? She has stayed there for over a YEAR and you guys don't have a rewards program. In most other hotel chains, they would have given her more than a month of free nights by now, so since you are too stingy to do that maybe instead you could cut her some slack once in a while and let her pay late." She got up to date on her payments, and on a Saturday I authorized the hotel to spend another $200 on my own credit card for additional nights, which should have taken her through the following Thursday. They used about $130 of the $200, but then on Tuesday at about 1:00 p.m. told her that she had to be out by 6:00 p.m. that same evening! She told me so at 3:00 p.m. but was not answering her phone a short while later, I contacted the manager at about 4:15 p.m. to inquire about the sudden change of events, he intentionally refused to return my phone call, went home for the day, and the front-desk clerk refused to do anything to help me, including knocking on my mother's door to check on her. I had no idea where my elderly mother was, so since the front-desk clerk was so pathetically lazy and unhelpful I actually asked the police to go check on my mother. Only close to 7:00 p.m. did I realize that Motel 6 HAD in fact kicked my mother and her two pets out of the hotel, they were in her car in the parking lot not having anywhere to go in a thunderstorm. I will never patronize Motel 6 again, ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r203123374-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203123374</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>I stayed here while I was visiting friends in Houston last November. As I have some mobility issues, the young lady on duty was kind enough to provide me with a disabled access room at the very end near the pool / carpark. The room was spotlessly clean, the bed was quite firm, but very comfortable. The bathroom was very spacious, clean and very easy to use.The WiFi, however, was absolute garbage. It appears they have it outsourced to some third party to manage. The speeds were absolutely atrocious and it barely stayed connected. Took repeated tries to download iTunes of all things. If the owners read this, I'm sure I can give them alternatives if they want to contact me.As for facilities in the area, there is a Whataburger and a Taco Bell less than a two minute walk from the hotel, as well as a Denny's through the underpass and on the other side of the highway.The sound of the traffic is extremely loud when you are outside, but the walls and doors in that particular room were very thick and I don't remember hearing it with the door closed.Overall, I was extremely happy with my visit and I would gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed here while I was visiting friends in Houston last November. As I have some mobility issues, the young lady on duty was kind enough to provide me with a disabled access room at the very end near the pool / carpark. The room was spotlessly clean, the bed was quite firm, but very comfortable. The bathroom was very spacious, clean and very easy to use.The WiFi, however, was absolute garbage. It appears they have it outsourced to some third party to manage. The speeds were absolutely atrocious and it barely stayed connected. Took repeated tries to download iTunes of all things. If the owners read this, I'm sure I can give them alternatives if they want to contact me.As for facilities in the area, there is a Whataburger and a Taco Bell less than a two minute walk from the hotel, as well as a Denny's through the underpass and on the other side of the highway.The sound of the traffic is extremely loud when you are outside, but the walls and doors in that particular room were very thick and I don't remember hearing it with the door closed.Overall, I was extremely happy with my visit and I would gladly stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r197469320-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
   </si>
   <si>
@@ -427,6 +616,42 @@
     <t>This motel is a great value for the price, location, and cleanliness of the rooms. The rooms are impressively large and I was surprised but impressed at how clean my room was. It was not perfectly quiet, but quieter than some hotels I've stayed at. And while the front office desk manager did not have great customer service skills, she was to her credit also understaffed and seemingly ill-trained. The TV was very small and old but worked. Furnishings were sparse but adequate. In short, if you are looking for a clean, well located, and cheap stay without all the frills, you will find this motel to be a good value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r176675430-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176675430</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>DON'T DO IT</t>
+  </si>
+  <si>
+    <t>The hotel is NOT in a decent part of town.  First we had to pay for Wi-Fi, The freeway noise was heard all night.  Thugs and homeless people walked back and forth being loud all night and it was a Tuesday.  The rooms may be renovated and nicer, but it is not worth your safety.  Unless your looking for drugs or prostitutes this is not a place for normal people.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r162048528-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162048528</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>They do not have adequate truck parking,  we researched online before hand, if you bobtail you are fine. Rooms are clean, pet friendly.  I rrecommend not going outside.we opted to order in because location is not great . The front desk has bullet proof glass, homeless, prostitution and whatever else is going on is all around.  Stay here onlh if you have to.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r145398968-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
   </si>
   <si>
@@ -490,6 +715,45 @@
     <t>This place is cheap for a reason. Had I known how disgusting this place was I would not have even booked and would have stayed elsewhere. It was loud and I had people loitering and  yelling in front of my window at 6am!! Who does that??The peep hole had a napkin stuffed in it and there was a bullet hole in the ceiling above the sitting table in the room.I have never had such a restless and uncomfortable night in my life.I have no problem with the Motel 6 chain. I have stayed at numerous ones and have had great expeirences but this one was by far the worst hotel stay I have ever had!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r125649846-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125649846</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>HOLY CRAP!!!!!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed two nights here during the Houston Stock Show. HOLY CRAP! Two cars were stolen out of the parking lot, three were vandalized and we catch one idiot at 8:00am staring on the window of my truck gettting ready to break in!! Oh and to top it off, the beds are terrible, the rooms stink, the walls are paper thin so here the snoring of the crack head in the room next to you, and the hotel staff is RUDE! Avoid this place like the PLAGUE!!!!!!!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r120600561-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120600561</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Good place close to Reliant Park</t>
+  </si>
+  <si>
+    <t>We were on the way to Galveston, on our motorcycle, when my husband became ill. We called a fellow Gold Wing rider who came to our rescue. I drove his car, with my husband, as passenger, and the good samaritan took us to the Reliant Park Motel 6.  I was, extremely, apprehensive because we know nothing of Houston or the area. Our room was large, very clean, beds comfortable and a clean bathroom. We don't usually, stay in Motel 6's. We stay at motels that have the free breakfast so we can eat and go. But, there is a Shell quick pick right next door to get coffee in the morning and a Whataburger where I could walk to get a bite to eat.  I would, definitely, recommend this Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We were on the way to Galveston, on our motorcycle, when my husband became ill. We called a fellow Gold Wing rider who came to our rescue. I drove his car, with my husband, as passenger, and the good samaritan took us to the Reliant Park Motel 6.  I was, extremely, apprehensive because we know nothing of Houston or the area. Our room was large, very clean, beds comfortable and a clean bathroom. We don't usually, stay in Motel 6's. We stay at motels that have the free breakfast so we can eat and go. But, there is a Shell quick pick right next door to get coffee in the morning and a Whataburger where I could walk to get a bite to eat.  I would, definitely, recommend this Motel 6.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r98276537-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
   </si>
   <si>
@@ -547,6 +811,48 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r81583557-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>81583557</t>
+  </si>
+  <si>
+    <t>09/30/2010</t>
+  </si>
+  <si>
+    <t>Bad choice!</t>
+  </si>
+  <si>
+    <t>Reserved by internet, thought this would be easier, upon arrival there was a couple yelling at each other like they were about to lose their lungs, upon entering, the computer system was down, had to wait until it was back up, counter person was nice enough to give me a small discount but at least recognized the inconvenience. I was located in front of building and never got a good night rest due to traffic noise, it was terrible. Do not allow to get a front room because you might as well not sleep at all. Had trouble looking for a working light so finally found one at the end of the room when I was entering. Why have security if all I saw him doing was talking to his friends and sitting on the stairs. I would not stay in the same room or proximity but I will stay again because of the value and the close proximity to location. Hey I understand you get for what you pay for and if you want a top tier place, this is not the one to choose. Good Luck!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Reserved by internet, thought this would be easier, upon arrival there was a couple yelling at each other like they were about to lose their lungs, upon entering, the computer system was down, had to wait until it was back up, counter person was nice enough to give me a small discount but at least recognized the inconvenience. I was located in front of building and never got a good night rest due to traffic noise, it was terrible. Do not allow to get a front room because you might as well not sleep at all. Had trouble looking for a working light so finally found one at the end of the room when I was entering. Why have security if all I saw him doing was talking to his friends and sitting on the stairs. I would not stay in the same room or proximity but I will stay again because of the value and the close proximity to location. Hey I understand you get for what you pay for and if you want a top tier place, this is not the one to choose. Good Luck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r70140386-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>70140386</t>
+  </si>
+  <si>
+    <t>07/08/2010</t>
+  </si>
+  <si>
+    <t>WORST HOTEL I EVER STAYED IN</t>
+  </si>
+  <si>
+    <t>unkept, unclean unsafe un every other word i can think of....very very dirty outside inside not much better...staff was mor interested in their cell phones etc than guest..maids sitting behind the counter complaining....room was like a dungeon (220) nothing but noise from an old elevator and people in the hall way all night..ladies on cell phones in the parking lot directing men to the hotel....ladies trying to borrow cell phones from patrons....arrest being made in the parking lot.... filthy stairways and hall ways...water from a/c units dripping down....no security at all...none nada zip....most unsafe i have ever felt in a motel stay....oh yeah and the drug dealers comin and going added to the excitement....,MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>unkept, unclean unsafe un every other word i can think of....very very dirty outside inside not much better...staff was mor interested in their cell phones etc than guest..maids sitting behind the counter complaining....room was like a dungeon (220) nothing but noise from an old elevator and people in the hall way all night..ladies on cell phones in the parking lot directing men to the hotel....ladies trying to borrow cell phones from patrons....arrest being made in the parking lot.... filthy stairways and hall ways...water from a/c units dripping down....no security at all...none nada zip....most unsafe i have ever felt in a motel stay....oh yeah and the drug dealers comin and going added to the excitement....,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r61789197-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
   </si>
   <si>
@@ -602,6 +908,42 @@
   </si>
   <si>
     <t>Toooo loud.  I'm staying here currently and am listening to freeway sounds, loud people and my neighbor's TV.  Only 1 towel in the room.  Only had 1 more to offer.  Won't stay here again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r52542046-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>52542046</t>
+  </si>
+  <si>
+    <t>01/04/2010</t>
+  </si>
+  <si>
+    <t>new look is nice, but</t>
+  </si>
+  <si>
+    <t>no working light switch at door(and lights were not left on).  A bit of stumbling around in dark room found one that did work.  A few cock roaches, but not too bad for Houston.  They actually stapled a tripadvisor.com card to my receipt.   Maybe that is why the check in clerk was so nice ---- typically the check in clerks at this location left you the impression they wished you'd go somewhere else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r50700153-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50700153</t>
+  </si>
+  <si>
+    <t>12/05/2009</t>
+  </si>
+  <si>
+    <t>Staff makes motel 6 experience a great one.</t>
+  </si>
+  <si>
+    <t>This location seems to be one of the older ones in the Motel 6 line, and was under renovation during my visit, but the construction didn't interfere at all with my stay. The front desk staff, both at check-in and check-out expressed their appreciation for my business and seemed genuinely interested in helping me. The night was particularly cold and when I returned to my room after supper, I found that the heater had ceased to function and wouldn't run at all. When I called the desk, the lady graciously and immediately transferred me to another room. The most important thing to me was the friendliness of the staff. I wasn't surprised by the cleanliness of the room as it met the standards I've come to expect from Motel 6. I will reserve my next room at the same location the next time I visit Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>This location seems to be one of the older ones in the Motel 6 line, and was under renovation during my visit, but the construction didn't interfere at all with my stay. The front desk staff, both at check-in and check-out expressed their appreciation for my business and seemed genuinely interested in helping me. The night was particularly cold and when I returned to my room after supper, I found that the heater had ceased to function and wouldn't run at all. When I called the desk, the lady graciously and immediately transferred me to another room. The most important thing to me was the friendliness of the staff. I wasn't surprised by the cleanliness of the room as it met the standards I've come to expect from Motel 6. I will reserve my next room at the same location the next time I visit Houston.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244314-r23406818-Motel_6_Houston_NRG_Park_Reliant_Stadium-Houston_Texas.html</t>
@@ -1182,7 +1524,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1191,18 +1533,26 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1568,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1227,25 +1577,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1259,7 +1609,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1275,7 +1625,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1284,43 +1634,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1336,7 +1682,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1345,25 +1691,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1377,7 +1723,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1393,7 +1739,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1402,45 +1748,41 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
         <v>83</v>
       </c>
@@ -1458,7 +1800,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1467,43 +1809,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -1519,7 +1861,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1528,47 +1870,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1584,7 +1918,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1593,38 +1927,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1647,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1656,43 +1984,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -1708,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1717,34 +2049,32 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>3</v>
@@ -1755,7 +2085,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1771,7 +2101,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1780,49 +2110,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1838,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1847,49 +2171,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1905,7 +2223,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1914,49 +2232,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -1972,7 +2288,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1981,41 +2297,37 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2023,7 +2335,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2039,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2048,49 +2360,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -2106,7 +2412,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2115,41 +2421,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2157,7 +2459,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2173,7 +2475,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2182,37 +2484,41 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2220,7 +2526,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -2236,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2245,41 +2551,37 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>172</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2287,7 +2589,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -2303,7 +2605,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2312,41 +2614,41 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
         <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2354,7 +2656,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -2370,7 +2672,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2379,41 +2681,41 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2421,7 +2723,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -2437,7 +2739,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2446,30 +2748,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
         <v>3</v>
@@ -2484,7 +2790,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -2500,7 +2806,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2509,49 +2815,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -2567,7 +2863,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2576,41 +2872,41 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
         <v>2</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2618,7 +2914,1071 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s">
+        <v>265</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>266</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>304</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>312</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
